--- a/south-korea-trade-balance-20170909/south-korea-trade-balance-20170909.xlsx
+++ b/south-korea-trade-balance-20170909/south-korea-trade-balance-20170909.xlsx
@@ -17,13 +17,13 @@
     <t>label</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
     <t>Argentina</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>Australia</t>
@@ -122,9 +122,6 @@
     <t>10.30</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>-19.86</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>13.07</t>
-  </si>
-  <si>
-    <t>headline</t>
   </si>
   <si>
     <t>-7.51</t>
@@ -174,9 +168,6 @@
   </si>
   <si>
     <t>9.59</t>
-  </si>
-  <si>
-    <t>South Korea's Global Trade Balance</t>
   </si>
   <si>
     <t>68.57</t>
@@ -242,10 +233,10 @@
     <t>-4.09</t>
   </si>
   <si>
-    <t>subhed</t>
+    <t>8.59</t>
   </si>
   <si>
-    <t>8.59</t>
+    <t>value</t>
   </si>
   <si>
     <t>-16.50</t>
@@ -264,9 +255,6 @@
   </si>
   <si>
     <t>-7.87</t>
-  </si>
-  <si>
-    <t>South Korea's &lt;a href="https://en.wikipedia.org/wiki/Balance_of_trade"&gt;balance of trade&lt;/a&gt;, or its exports minus its imports, varies widely by country, both in raw dollars and as a percentage its overall trade with various nations. These charts show the latter measure, by year, with the world's largest economies. Green bars reflect a positive trade balance for South Korea. Orange bars mean it suffered a trade deficit with a particular country in a given year.</t>
   </si>
   <si>
     <t>-36.66</t>
@@ -410,9 +398,6 @@
     <t>13.46</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
@@ -423,9 +408,6 @@
   </si>
   <si>
     <t>-50.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figures normalized to reflect the trade balance as a percentage of overall trade in a given year. </t>
   </si>
   <si>
     <t>-3.20</t>
@@ -452,16 +434,10 @@
     <t>33.67</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>-22.24</t>
   </si>
   <si>
     <t>-20.31</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.customs.go.kr/kcshome/trade/TradeCountryList.do?layoutMenuNo=21031"&gt;Korea Customs Service&lt;/a&gt;</t>
   </si>
   <si>
     <t>-2.11</t>
@@ -491,13 +467,7 @@
     <t>-70.96</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>32.09</t>
-  </si>
-  <si>
-    <t>Matt Stiles/The Daily Viz</t>
   </si>
   <si>
     <t>-37.87</t>
@@ -524,13 +494,7 @@
     <t>2011</t>
   </si>
   <si>
-    <t>annotation_average</t>
-  </si>
-  <si>
     <t>11.55</t>
-  </si>
-  <si>
-    <t>World avg: +2.8</t>
   </si>
   <si>
     <t>1.55</t>
@@ -548,19 +512,16 @@
     <t>30.16</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
     <t>-14.60</t>
   </si>
   <si>
     <t>21.65</t>
   </si>
   <si>
-    <t>annotation_low</t>
-  </si>
-  <si>
     <t>-5.05</t>
-  </si>
-  <si>
-    <t>&amp;darr; Korea imports more than it exports</t>
   </si>
   <si>
     <t>-28.20</t>
@@ -581,6 +542,9 @@
     <t>-26.52</t>
   </si>
   <si>
+    <t>South Korea's Global Trade Balance</t>
+  </si>
+  <si>
     <t>61.55</t>
   </si>
   <si>
@@ -593,16 +557,10 @@
     <t>-59.13</t>
   </si>
   <si>
-    <t>annotation_high</t>
-  </si>
-  <si>
     <t>83.19</t>
   </si>
   <si>
     <t>-2.59</t>
-  </si>
-  <si>
-    <t>&amp;uarr; Korea exports more than it imports</t>
   </si>
   <si>
     <t>-68.30</t>
@@ -671,10 +629,16 @@
     <t>-5.81</t>
   </si>
   <si>
+    <t>subhed</t>
+  </si>
+  <si>
     <t>-15.46</t>
   </si>
   <si>
     <t>-24.78</t>
+  </si>
+  <si>
+    <t>South Korea's &lt;a href="https://en.wikipedia.org/wiki/Balance_of_trade"&gt;balance of trade&lt;/a&gt;, or its exports minus its imports, varies widely by country, both in raw dollars and as a percentage its overall trade with various nations. These charts show the latter measure, by year, with the world's largest economies. Green bars reflect a positive trade balance for South Korea. Orange bars mean it suffered a trade deficit with a particular country in a given year.</t>
   </si>
   <si>
     <t>55.45</t>
@@ -773,7 +737,13 @@
     <t>13.35</t>
   </si>
   <si>
+    <t>footnote</t>
+  </si>
+  <si>
     <t>-18.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figures normalized to reflect the trade balance as a percentage of overall trade in a given year. </t>
   </si>
   <si>
     <t>-40.74</t>
@@ -783,6 +753,12 @@
   </si>
   <si>
     <t>-1.53</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.customs.go.kr/kcshome/trade/TradeCountryList.do?layoutMenuNo=21031"&gt;Korea Customs Service&lt;/a&gt;</t>
   </si>
   <si>
     <t>-62.03</t>
@@ -860,10 +836,16 @@
     <t>53.69</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>6.98</t>
   </si>
   <si>
     <t>-38.38</t>
+  </si>
+  <si>
+    <t>Matt Stiles/The Daily Viz</t>
   </si>
   <si>
     <t>-25.97</t>
@@ -908,7 +890,13 @@
     <t>19.93</t>
   </si>
   <si>
+    <t>annotation_average</t>
+  </si>
+  <si>
     <t>-20.56</t>
+  </si>
+  <si>
+    <t>World avg: +2.8</t>
   </si>
   <si>
     <t>-14.30</t>
@@ -953,7 +941,13 @@
     <t>-3.88</t>
   </si>
   <si>
+    <t>annotation_low</t>
+  </si>
+  <si>
     <t>-24.19</t>
+  </si>
+  <si>
+    <t>&amp;darr; Korea imports more than it exports</t>
   </si>
   <si>
     <t>29.04</t>
@@ -998,10 +992,16 @@
     <t>21.20</t>
   </si>
   <si>
+    <t>annotation_high</t>
+  </si>
+  <si>
     <t>-2.27</t>
   </si>
   <si>
     <t>-33.85</t>
+  </si>
+  <si>
+    <t>&amp;uarr; Korea exports more than it imports</t>
   </si>
   <si>
     <t>-13.03</t>
@@ -1118,45 +1118,40 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1166,11 +1161,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,43 +1183,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1253,10 +1248,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1285,10 +1280,10 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1317,10 +1312,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1349,10 +1344,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1381,10 +1376,10 @@
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1413,10 +1408,10 @@
     </row>
     <row r="8" ht="33.0" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1445,10 +1440,10 @@
     </row>
     <row r="9" ht="33.0" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>196</v>
+        <v>329</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1724,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -1824,1009 +1819,1009 @@
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3">
+        <v>31.05</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="5">
-        <v>31.05</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3">
+        <v>79.4</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="5">
-        <v>79.4</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="3">
+        <v>79.79</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="5">
-        <v>7.55</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="5">
-        <v>79.79</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AB3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AD3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AE3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AG3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="J4" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="M4" s="3">
+        <v>85.94</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="5">
-        <v>53.5</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="5">
-        <v>85.94</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AA4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AB4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AC4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AG4" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="J5" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="M5" s="3">
+        <v>85.71</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M5" s="5">
-        <v>85.71</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="U5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="X5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="Z5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="AA5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="AB5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="AC5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="AD5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="AE5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="AG5" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="3">
+        <v>42.85</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="L6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="3">
+        <v>86.09</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="O6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="U6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="5">
-        <v>42.85</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="V6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="X6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M6" s="5">
-        <v>86.09</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="Z6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="AA6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="AB6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="AC6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="AD6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="AE6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="AF6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="AG6" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="3">
+        <v>38.51</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="3">
+        <v>88.12</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="T7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="V7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="W7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="X7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="Y7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J7" s="5">
-        <v>38.51</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="AA7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M7" s="5">
-        <v>88.12</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="AB7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="AC7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="AD7" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="AE7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="AF7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="AG7" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20.34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="3">
+        <v>87.0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="T8" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="U8" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J8" s="5">
-        <v>20.34</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="V8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="W8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M8" s="5">
-        <v>87.0</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="X8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Y8" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="Z8" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="AA8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="AB8" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="AC8" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="AD8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="AE8" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="AF8" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AG8" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="3">
+        <v>63.27</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="M9" s="3">
+        <v>87.93</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="5">
-        <v>63.27</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="T9" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="5">
-        <v>87.93</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="V9" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="W9" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="X9" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="Y9" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="Z9" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="AA9" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AB9" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="AC9" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="AD9" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AE9" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AF9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>81.78</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="M10" s="3">
+        <v>90.64</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J10" s="5">
-        <v>81.78</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="M10" s="5">
-        <v>90.64</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="R10" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="S10" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="T10" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="U10" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="V10" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="Y10" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Z10" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="AA10" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="AB10" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AC10" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AD10" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AE10" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AF10" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AG10" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>93.18</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>90.61</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="U11" s="3" t="s">
+      <c r="T11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y11" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AA11" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AB11" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AD11" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AE11" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AF11" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="2" t="s">
         <v>354</v>
       </c>
     </row>
